--- a/1.3Account.xlsx
+++ b/1.3Account.xlsx
@@ -857,7 +857,9 @@
       </x:c>
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
-      <x:c r="K11" s="0" t="s"/>
+      <x:c r="K11" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="0" t="s"/>

--- a/1.3Account.xlsx
+++ b/1.3Account.xlsx
@@ -924,7 +924,9 @@
       <x:c r="H14" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="I14" s="0" t="s"/>
+      <x:c r="I14" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
       <x:c r="J14" s="0" t="s"/>
       <x:c r="K14" s="0" t="s"/>
     </x:row>
@@ -945,7 +947,9 @@
       </x:c>
       <x:c r="I15" s="0" t="s"/>
       <x:c r="J15" s="0" t="s"/>
-      <x:c r="K15" s="0" t="s"/>
+      <x:c r="K15" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
     </x:row>
     <x:row r="16" spans="1:11">
       <x:c r="A16" s="0" t="s"/>

--- a/1.3Account.xlsx
+++ b/1.3Account.xlsx
@@ -924,9 +924,7 @@
       <x:c r="H14" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="I14" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
+      <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
       <x:c r="K14" s="0" t="s"/>
     </x:row>
@@ -947,9 +945,7 @@
       </x:c>
       <x:c r="I15" s="0" t="s"/>
       <x:c r="J15" s="0" t="s"/>
-      <x:c r="K15" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
+      <x:c r="K15" s="0" t="s"/>
     </x:row>
     <x:row r="16" spans="1:11">
       <x:c r="A16" s="0" t="s"/>
